--- a/source/fr_dc_age_sex/xlsx/2010_dc_age_sex_e.xlsx
+++ b/source/fr_dc_age_sex/xlsx/2010_dc_age_sex_e.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/workspaces/legco-data/source/fr_dc_age_sex/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="27100" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="27100" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>IIK Island</t>
   </si>
@@ -64,9 +72,6 @@
   </si>
   <si>
     <t>31-35</t>
-  </si>
-  <si>
-    <t>NI</t>
   </si>
   <si>
     <t>36-40</t>
@@ -255,14 +260,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -270,7 +274,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,7 +283,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,7 +292,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -318,7 +322,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -663,7 +667,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,6 +856,33 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -870,13 +901,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,33 +919,84 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -933,82 +1015,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,32 +1024,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1370,40 +1376,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="88" t="s">
+    <row r="1" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
       <c r="H1" s="91" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="92"/>
       <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94" t="s">
+      <c r="K1" s="117"/>
+      <c r="L1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
       <c r="O1" s="91" t="s">
         <v>3</v>
       </c>
@@ -1411,150 +1417,150 @@
       <c r="Q1" s="92"/>
       <c r="R1" s="92"/>
       <c r="S1" s="92"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="81" t="s">
+      <c r="T1" s="93"/>
+      <c r="U1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="114" t="s">
-        <v>55</v>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="102" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="98" t="s">
+    <row r="2" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="109"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="F2" s="97" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="101" t="s">
-        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="J2" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="K2" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="M2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="73" t="s">
+      <c r="O2" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="76" t="s">
+      <c r="U2" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="115"/>
+      <c r="Z2" s="103"/>
     </row>
-    <row r="3" spans="1:26" ht="13" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="102"/>
+    <row r="3" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="109"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="3"/>
       <c r="H3" s="71"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="83"/>
       <c r="L3" s="71"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="83"/>
       <c r="O3" s="71"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="115"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="103"/>
     </row>
-    <row r="4" spans="1:26" ht="16" customHeight="1" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="103"/>
+    <row r="4" spans="1:26" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="110"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="4"/>
       <c r="H4" s="72"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="84"/>
       <c r="L4" s="72"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="75"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="84"/>
       <c r="O4" s="72"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="116"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="104"/>
     </row>
-    <row r="5" spans="1:26" ht="14" thickBot="1">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1633,8 +1639,10 @@
         <v>59908</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14" thickBot="1">
-      <c r="A6" s="80"/>
+    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1711,11 +1719,11 @@
         <v>64914</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A7" s="110" t="s">
+    <row r="7" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="111"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="21">
         <v>2613</v>
       </c>
@@ -1789,8 +1797,8 @@
         <v>124822</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14" thickBot="1">
-      <c r="A8" s="79" t="s">
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1869,8 +1877,10 @@
         <v>96984</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14" thickBot="1">
-      <c r="A9" s="80"/>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
@@ -1947,11 +1957,11 @@
         <v>97397</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="110" t="s">
+    <row r="10" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="111"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="21">
         <v>4752</v>
       </c>
@@ -2025,8 +2035,8 @@
         <v>194381</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="79" t="s">
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -2068,10 +2078,10 @@
       <c r="N11" s="33">
         <v>17589</v>
       </c>
-      <c r="O11" s="119">
+      <c r="O11" s="64">
         <v>4229</v>
       </c>
-      <c r="P11" s="120">
+      <c r="P11" s="65">
         <v>10445</v>
       </c>
       <c r="Q11" s="32">
@@ -2105,10 +2115,12 @@
         <v>119596</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14" thickBot="1">
-      <c r="A12" s="80"/>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6">
         <v>3070</v>
@@ -2183,11 +2195,11 @@
         <v>119491</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A13" s="110" t="s">
+    <row r="13" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="21">
         <v>6386</v>
       </c>
@@ -2261,8 +2273,8 @@
         <v>239087</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14" thickBot="1">
-      <c r="A14" s="79" t="s">
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2341,10 +2353,12 @@
         <v>127824</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14" thickBot="1">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66" t="s">
+        <v>14</v>
+      </c>
       <c r="B15" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15" s="9">
         <v>3921</v>
@@ -2371,7 +2385,7 @@
         <v>5974</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L15" s="9">
         <v>7924</v>
@@ -2419,11 +2433,11 @@
         <v>134401</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A16" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="111"/>
+    <row r="16" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="101"/>
       <c r="C16" s="21">
         <v>8031</v>
       </c>
@@ -2497,9 +2511,9 @@
         <v>262225</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="14" thickBot="1">
-      <c r="A17" s="79" t="s">
-        <v>16</v>
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
@@ -2577,8 +2591,10 @@
         <v>140663</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="14" thickBot="1">
-      <c r="A18" s="80"/>
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
+        <v>15</v>
+      </c>
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -2655,11 +2671,11 @@
         <v>139702</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A19" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="111"/>
+    <row r="19" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="21">
         <v>9317</v>
       </c>
@@ -2724,7 +2740,7 @@
         <v>21334</v>
       </c>
       <c r="X19" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y19" s="25">
         <v>66631</v>
@@ -2733,9 +2749,9 @@
         <v>280365</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="14" thickBot="1">
-      <c r="A20" s="79" t="s">
-        <v>61</v>
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
+        <v>60</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>7</v>
@@ -2813,10 +2829,12 @@
         <v>166016</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14" thickBot="1">
-      <c r="A21" s="80"/>
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66" t="s">
+        <v>60</v>
+      </c>
       <c r="B21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="9">
         <v>4798</v>
@@ -2891,11 +2909,11 @@
         <v>154016</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A22" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="111"/>
+    <row r="22" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="101"/>
       <c r="C22" s="21">
         <v>10229</v>
       </c>
@@ -2969,9 +2987,9 @@
         <v>320032</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="14" thickBot="1">
-      <c r="A23" s="79" t="s">
-        <v>19</v>
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>7</v>
@@ -3049,8 +3067,10 @@
         <v>218232</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="14" thickBot="1">
-      <c r="A24" s="80"/>
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66" t="s">
+        <v>18</v>
+      </c>
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -3127,11 +3147,11 @@
         <v>207828</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A25" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="111"/>
+    <row r="25" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="101"/>
       <c r="C25" s="21">
         <v>13164</v>
       </c>
@@ -3205,9 +3225,9 @@
         <v>426060</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="14" thickBot="1">
-      <c r="A26" s="79" t="s">
-        <v>21</v>
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
+        <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>7</v>
@@ -3285,8 +3305,10 @@
         <v>207446</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="14" thickBot="1">
-      <c r="A27" s="80"/>
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="66" t="s">
+        <v>20</v>
+      </c>
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -3363,11 +3385,11 @@
         <v>209497</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A28" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="111"/>
+    <row r="28" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="101"/>
       <c r="C28" s="21">
         <v>13148</v>
       </c>
@@ -3441,9 +3463,9 @@
         <v>416943</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="14" thickBot="1">
-      <c r="A29" s="79" t="s">
-        <v>23</v>
+    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
+        <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>7</v>
@@ -3521,10 +3543,12 @@
         <v>163183</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="14" thickBot="1">
-      <c r="A30" s="80"/>
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66" t="s">
+        <v>22</v>
+      </c>
       <c r="B30" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9">
         <v>5772</v>
@@ -3599,11 +3623,11 @@
         <v>169884</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A31" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="111"/>
+    <row r="31" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="101"/>
       <c r="C31" s="21">
         <v>11391</v>
       </c>
@@ -3677,9 +3701,9 @@
         <v>333067</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="14" thickBot="1">
-      <c r="A32" s="79" t="s">
-        <v>25</v>
+    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
+        <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>7</v>
@@ -3757,10 +3781,12 @@
         <v>112757</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="14" thickBot="1">
-      <c r="A33" s="80"/>
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66" t="s">
+        <v>24</v>
+      </c>
       <c r="B33" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="9">
         <v>4441</v>
@@ -3835,11 +3861,11 @@
         <v>121095</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A34" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="111"/>
+    <row r="34" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="101"/>
       <c r="C34" s="21">
         <v>8504</v>
       </c>
@@ -3880,7 +3906,7 @@
         <v>9300</v>
       </c>
       <c r="P34" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q34" s="22">
         <v>13138</v>
@@ -3913,12 +3939,12 @@
         <v>233852</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A35" s="112" t="s">
-        <v>27</v>
+    <row r="35" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9">
         <v>2182</v>
@@ -3993,8 +4019,10 @@
         <v>70581</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="113"/>
+    <row r="36" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66" t="s">
+        <v>26</v>
+      </c>
       <c r="B36" s="37" t="s">
         <v>8</v>
       </c>
@@ -4071,11 +4099,11 @@
         <v>85667</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A37" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="111"/>
+    <row r="37" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="101"/>
       <c r="C37" s="21">
         <v>4645</v>
       </c>
@@ -4149,9 +4177,9 @@
         <v>156248</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="14" thickBot="1">
-      <c r="A38" s="79" t="s">
-        <v>28</v>
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="66" t="s">
+        <v>27</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>7</v>
@@ -4229,8 +4257,10 @@
         <v>226291</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="14" thickBot="1">
-      <c r="A39" s="80"/>
+    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="66" t="s">
+        <v>27</v>
+      </c>
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -4307,11 +4337,11 @@
         <v>218219</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A40" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="111"/>
+    <row r="40" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="101"/>
       <c r="C40" s="21">
         <v>14110</v>
       </c>
@@ -4385,8 +4415,8 @@
         <v>444510</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="13" customHeight="1">
-      <c r="A41" s="79" t="s">
+    <row r="41" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="108" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -4465,10 +4495,10 @@
         <v>1709481</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A42" s="80"/>
+    <row r="42" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="110"/>
       <c r="B42" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="56">
         <v>52792</v>
@@ -4543,11 +4573,11 @@
         <v>1722111</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A43" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="118"/>
+    <row r="43" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="119"/>
       <c r="C43" s="59">
         <v>106290</v>
       </c>
@@ -4621,40 +4651,28 @@
         <v>3431592</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="44">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="Z1:Z4"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="U1:Y1"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="A1:A4"/>
@@ -4666,32 +4684,27 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
+    <mergeCell ref="N2:N4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="S2:S4"/>
     <mergeCell ref="V2:V4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="U2:U4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
     <mergeCell ref="Y2:Y4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="R2:R4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="W2:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/source/fr_dc_age_sex/xlsx/2010_dc_age_sex_e.xlsx
+++ b/source/fr_dc_age_sex/xlsx/2010_dc_age_sex_e.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/workspaces/legco-data/source/fr_dc_age_sex/xlsx/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="27100" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="13200" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
-  <si>
-    <t>IIK Island</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Kowloon West</t>
   </si>
@@ -72,6 +61,9 @@
   </si>
   <si>
     <t>31-35</t>
+  </si>
+  <si>
+    <t>NI</t>
   </si>
   <si>
     <t>36-40</t>
@@ -191,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 25,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tsuen Wan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,10 +234,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16,92</t>
-  </si>
-  <si>
     <t>Age Range,</t>
+  </si>
+  <si>
+    <t>HK Island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -260,13 +249,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,7 +264,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,7 +273,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -292,7 +282,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -322,7 +312,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -667,7 +657,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,12 +789,6 @@
     <xf numFmtId="3" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -862,9 +846,6 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -964,6 +945,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -988,15 +975,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1024,31 +1005,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1376,195 +1358,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="W17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="111" t="s">
+    <row r="1" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A1" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="91" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="88" t="s">
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91" t="s">
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="105" t="s">
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="13" customHeight="1">
+      <c r="A2" s="107"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="102" t="s">
+      <c r="H2" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="70" t="s">
         <v>54</v>
       </c>
+      <c r="W2" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="102"/>
     </row>
-    <row r="2" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="3" spans="1:26" ht="13" customHeight="1">
+      <c r="A3" s="107"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="102"/>
+    </row>
+    <row r="4" spans="1:26" ht="16" customHeight="1" thickBot="1">
+      <c r="A4" s="98"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="103"/>
+    </row>
+    <row r="5" spans="1:26" ht="14" thickBot="1">
+      <c r="A5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="103"/>
-    </row>
-    <row r="3" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="103"/>
-    </row>
-    <row r="4" spans="1:26" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="104"/>
-    </row>
-    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="6">
         <v>1237</v>
@@ -1639,12 +1621,10 @@
         <v>59908</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" spans="1:26" ht="14" thickBot="1">
+      <c r="A6" s="98"/>
       <c r="B6" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6">
         <v>1376</v>
@@ -1719,11 +1699,11 @@
         <v>64914</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="101"/>
+    <row r="7" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A7" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="100"/>
       <c r="C7" s="21">
         <v>2613</v>
       </c>
@@ -1797,12 +1777,12 @@
         <v>124822</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
-        <v>10</v>
+    <row r="8" spans="1:26" ht="14" thickBot="1">
+      <c r="A8" s="97" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6">
         <v>2370</v>
@@ -1877,12 +1857,10 @@
         <v>96984</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>10</v>
-      </c>
+    <row r="9" spans="1:26" ht="14" thickBot="1">
+      <c r="A9" s="98"/>
       <c r="B9" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6">
         <v>2382</v>
@@ -1957,11 +1935,11 @@
         <v>97397</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="101"/>
+    <row r="10" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A10" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="100"/>
       <c r="C10" s="21">
         <v>4752</v>
       </c>
@@ -2035,12 +2013,12 @@
         <v>194381</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>12</v>
+    <row r="11" spans="1:26">
+      <c r="A11" s="97" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="29">
         <v>3316</v>
@@ -2078,10 +2056,10 @@
       <c r="N11" s="33">
         <v>17589</v>
       </c>
-      <c r="O11" s="64">
+      <c r="O11" s="62">
         <v>4229</v>
       </c>
-      <c r="P11" s="65">
+      <c r="P11" s="63">
         <v>10445</v>
       </c>
       <c r="Q11" s="32">
@@ -2115,10 +2093,8 @@
         <v>119596</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
-        <v>12</v>
-      </c>
+    <row r="12" spans="1:26" ht="14" thickBot="1">
+      <c r="A12" s="98"/>
       <c r="B12" s="41" t="s">
         <v>35</v>
       </c>
@@ -2195,11 +2171,11 @@
         <v>119491</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="101"/>
+    <row r="13" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A13" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="100"/>
       <c r="C13" s="21">
         <v>6386</v>
       </c>
@@ -2273,12 +2249,12 @@
         <v>239087</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>14</v>
+    <row r="14" spans="1:26" ht="14" thickBot="1">
+      <c r="A14" s="97" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="9">
         <v>4110</v>
@@ -2353,12 +2329,10 @@
         <v>127824</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+    <row r="15" spans="1:26" ht="14" thickBot="1">
+      <c r="A15" s="98"/>
+      <c r="B15" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="C15" s="9">
         <v>3921</v>
@@ -2384,8 +2358,8 @@
       <c r="J15" s="9">
         <v>5974</v>
       </c>
-      <c r="K15" s="45" t="s">
-        <v>62</v>
+      <c r="K15" s="17">
+        <v>16920</v>
       </c>
       <c r="L15" s="9">
         <v>7924</v>
@@ -2433,11 +2407,11 @@
         <v>134401</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="s">
+    <row r="16" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A16" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="101"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="21">
         <v>8031</v>
       </c>
@@ -2511,12 +2485,12 @@
         <v>262225</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+    <row r="17" spans="1:26" ht="14" thickBot="1">
+      <c r="A17" s="97" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="9">
         <v>4936</v>
@@ -2591,12 +2565,10 @@
         <v>140663</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
-        <v>15</v>
-      </c>
+    <row r="18" spans="1:26" ht="14" thickBot="1">
+      <c r="A18" s="98"/>
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="9">
         <v>4381</v>
@@ -2671,11 +2643,11 @@
         <v>139702</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+    <row r="19" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A19" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="21">
         <v>9317</v>
       </c>
@@ -2739,8 +2711,8 @@
       <c r="W19" s="22">
         <v>21334</v>
       </c>
-      <c r="X19" s="46" t="s">
-        <v>48</v>
+      <c r="X19" s="23">
+        <v>25131</v>
       </c>
       <c r="Y19" s="25">
         <v>66631</v>
@@ -2749,12 +2721,12 @@
         <v>280365</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
-        <v>60</v>
+    <row r="20" spans="1:26" ht="14" thickBot="1">
+      <c r="A20" s="97" t="s">
+        <v>59</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="9">
         <v>5431</v>
@@ -2829,10 +2801,8 @@
         <v>166016</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
-        <v>60</v>
-      </c>
+    <row r="21" spans="1:26" ht="14" thickBot="1">
+      <c r="A21" s="98"/>
       <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
@@ -2858,7 +2828,7 @@
         <v>6796</v>
       </c>
       <c r="J21" s="9">
-        <v>7310</v>
+        <v>7319</v>
       </c>
       <c r="K21" s="17">
         <v>19614</v>
@@ -2909,11 +2879,11 @@
         <v>154016</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+    <row r="22" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A22" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="101"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="21">
         <v>10229</v>
       </c>
@@ -2987,12 +2957,12 @@
         <v>320032</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
+    <row r="23" spans="1:26" ht="14" thickBot="1">
+      <c r="A23" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="9">
         <v>6823</v>
@@ -3067,12 +3037,10 @@
         <v>218232</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
-        <v>18</v>
-      </c>
+    <row r="24" spans="1:26" ht="14" thickBot="1">
+      <c r="A24" s="98"/>
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="9">
         <v>6341</v>
@@ -3147,11 +3115,11 @@
         <v>207828</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100" t="s">
+    <row r="25" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A25" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="101"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="21">
         <v>13164</v>
       </c>
@@ -3225,12 +3193,12 @@
         <v>426060</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
+    <row r="26" spans="1:26" ht="14" thickBot="1">
+      <c r="A26" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="9">
         <v>6532</v>
@@ -3289,10 +3257,10 @@
       <c r="U26" s="9">
         <v>10362</v>
       </c>
-      <c r="V26" s="48">
+      <c r="V26" s="46">
         <v>11650</v>
       </c>
-      <c r="W26" s="49">
+      <c r="W26" s="47">
         <v>11990</v>
       </c>
       <c r="X26" s="9">
@@ -3305,12 +3273,10 @@
         <v>207446</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
-        <v>20</v>
-      </c>
+    <row r="27" spans="1:26" ht="14" thickBot="1">
+      <c r="A27" s="98"/>
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="9">
         <v>6616</v>
@@ -3369,10 +3335,10 @@
       <c r="U27" s="9">
         <v>10845</v>
       </c>
-      <c r="V27" s="48">
+      <c r="V27" s="46">
         <v>11569</v>
       </c>
-      <c r="W27" s="49">
+      <c r="W27" s="47">
         <v>12925</v>
       </c>
       <c r="X27" s="9">
@@ -3385,11 +3351,11 @@
         <v>209497</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="100" t="s">
+    <row r="28" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A28" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="101"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="21">
         <v>13148</v>
       </c>
@@ -3400,7 +3366,7 @@
         <v>37998</v>
       </c>
       <c r="F28" s="23">
-        <v>17100</v>
+        <v>17300</v>
       </c>
       <c r="G28" s="18">
         <v>75709</v>
@@ -3463,12 +3429,12 @@
         <v>416943</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+    <row r="29" spans="1:26" ht="14" thickBot="1">
+      <c r="A29" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="9">
         <v>5619</v>
@@ -3543,10 +3509,8 @@
         <v>163183</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
-        <v>22</v>
-      </c>
+    <row r="30" spans="1:26" ht="14" thickBot="1">
+      <c r="A30" s="98"/>
       <c r="B30" s="15" t="s">
         <v>39</v>
       </c>
@@ -3623,11 +3587,11 @@
         <v>169884</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+    <row r="31" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A31" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="101"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="21">
         <v>11391</v>
       </c>
@@ -3662,7 +3626,7 @@
         <v>28585</v>
       </c>
       <c r="N31" s="18">
-        <v>43961</v>
+        <v>48961</v>
       </c>
       <c r="O31" s="24">
         <v>12114</v>
@@ -3701,12 +3665,12 @@
         <v>333067</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+    <row r="32" spans="1:26" ht="14" thickBot="1">
+      <c r="A32" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="9">
         <v>4063</v>
@@ -3781,10 +3745,8 @@
         <v>112757</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
-        <v>24</v>
-      </c>
+    <row r="33" spans="1:26" ht="14" thickBot="1">
+      <c r="A33" s="98"/>
       <c r="B33" s="15" t="s">
         <v>40</v>
       </c>
@@ -3861,11 +3823,11 @@
         <v>121095</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="100" t="s">
+    <row r="34" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A34" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="101"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="21">
         <v>8504</v>
       </c>
@@ -3900,13 +3862,13 @@
         <v>22139</v>
       </c>
       <c r="N34" s="18">
-        <v>36853</v>
+        <v>36883</v>
       </c>
       <c r="O34" s="24">
         <v>9300</v>
       </c>
-      <c r="P34" s="47" t="s">
-        <v>59</v>
+      <c r="P34" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="Q34" s="22">
         <v>13138</v>
@@ -3939,8 +3901,8 @@
         <v>233852</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66" t="s">
+    <row r="35" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A35" s="117" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3949,10 +3911,10 @@
       <c r="C35" s="9">
         <v>2182</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="46">
         <v>1608</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="47">
         <v>7480</v>
       </c>
       <c r="F35" s="9">
@@ -3968,7 +3930,7 @@
         <v>3823</v>
       </c>
       <c r="J35" s="9">
-        <v>4539</v>
+        <v>4589</v>
       </c>
       <c r="K35" s="10">
         <v>11187</v>
@@ -3976,7 +3938,7 @@
       <c r="L35" s="9">
         <v>5558</v>
       </c>
-      <c r="M35" s="50">
+      <c r="M35" s="48">
         <v>8376</v>
       </c>
       <c r="N35" s="10">
@@ -4019,20 +3981,18 @@
         <v>70581</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66" t="s">
-        <v>26</v>
-      </c>
+    <row r="36" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A36" s="118"/>
       <c r="B36" s="37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="32">
         <v>2463</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="49">
         <v>1695</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="50">
         <v>8012</v>
       </c>
       <c r="F36" s="32">
@@ -4099,11 +4059,11 @@
         <v>85667</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="101"/>
+    <row r="37" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A37" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="100"/>
       <c r="C37" s="21">
         <v>4645</v>
       </c>
@@ -4177,12 +4137,12 @@
         <v>156248</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
+    <row r="38" spans="1:26" ht="14" thickBot="1">
+      <c r="A38" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="9">
         <v>6879</v>
@@ -4257,12 +4217,10 @@
         <v>226291</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
-        <v>27</v>
-      </c>
+    <row r="39" spans="1:26" ht="14" thickBot="1">
+      <c r="A39" s="98"/>
       <c r="B39" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="9">
         <v>7231</v>
@@ -4337,11 +4295,11 @@
         <v>218219</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
+    <row r="40" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A40" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="101"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="21">
         <v>14110</v>
       </c>
@@ -4411,81 +4369,81 @@
       <c r="Y40" s="25">
         <v>80164</v>
       </c>
-      <c r="Z40" s="53">
+      <c r="Z40" s="51">
         <v>444510</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="108" t="s">
-        <v>5</v>
+    <row r="41" spans="1:26" ht="13" customHeight="1">
+      <c r="A41" s="97" t="s">
+        <v>4</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="51">
+        <v>6</v>
+      </c>
+      <c r="C41" s="49">
         <v>53498</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="50">
         <v>31327</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="49">
         <v>161569</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="50">
         <v>71625</v>
       </c>
       <c r="G41" s="10">
         <v>318019</v>
       </c>
-      <c r="H41" s="54">
+      <c r="H41" s="52">
         <v>55156</v>
       </c>
-      <c r="I41" s="55">
+      <c r="I41" s="53">
         <v>80102</v>
       </c>
-      <c r="J41" s="52">
+      <c r="J41" s="50">
         <v>82876</v>
       </c>
       <c r="K41" s="10">
         <v>218134</v>
       </c>
-      <c r="L41" s="54">
+      <c r="L41" s="52">
         <v>120522</v>
       </c>
-      <c r="M41" s="52">
+      <c r="M41" s="50">
         <v>156252</v>
       </c>
       <c r="N41" s="10">
         <v>276774</v>
       </c>
-      <c r="O41" s="54">
+      <c r="O41" s="52">
         <v>66725</v>
       </c>
-      <c r="P41" s="55">
+      <c r="P41" s="53">
         <v>125275</v>
       </c>
-      <c r="Q41" s="55">
+      <c r="Q41" s="53">
         <v>122719</v>
       </c>
-      <c r="R41" s="55">
+      <c r="R41" s="53">
         <v>129921</v>
       </c>
-      <c r="S41" s="52">
+      <c r="S41" s="50">
         <v>28764</v>
       </c>
       <c r="T41" s="13">
         <v>473404</v>
       </c>
-      <c r="U41" s="51">
+      <c r="U41" s="49">
         <v>75956</v>
       </c>
-      <c r="V41" s="55">
+      <c r="V41" s="53">
         <v>78973</v>
       </c>
-      <c r="W41" s="55">
+      <c r="W41" s="53">
         <v>99777</v>
       </c>
-      <c r="X41" s="52">
+      <c r="X41" s="50">
         <v>168444</v>
       </c>
       <c r="Y41" s="13">
@@ -4495,18 +4453,18 @@
         <v>1709481</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
+    <row r="42" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A42" s="98"/>
       <c r="B42" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="54">
         <v>52792</v>
       </c>
       <c r="D42" s="6">
         <v>30224</v>
       </c>
-      <c r="E42" s="56">
+      <c r="E42" s="54">
         <v>155064</v>
       </c>
       <c r="F42" s="6">
@@ -4515,10 +4473,10 @@
       <c r="G42" s="17">
         <v>307576</v>
       </c>
-      <c r="H42" s="57">
+      <c r="H42" s="55">
         <v>57897</v>
       </c>
-      <c r="I42" s="58">
+      <c r="I42" s="56">
         <v>82313</v>
       </c>
       <c r="J42" s="6">
@@ -4527,7 +4485,7 @@
       <c r="K42" s="17">
         <v>220823</v>
       </c>
-      <c r="L42" s="57">
+      <c r="L42" s="55">
         <v>117867</v>
       </c>
       <c r="M42" s="6">
@@ -4536,16 +4494,16 @@
       <c r="N42" s="17">
         <v>277647</v>
       </c>
-      <c r="O42" s="57">
+      <c r="O42" s="55">
         <v>67652</v>
       </c>
-      <c r="P42" s="58">
+      <c r="P42" s="56">
         <v>129027</v>
       </c>
-      <c r="Q42" s="58">
+      <c r="Q42" s="56">
         <v>133163</v>
       </c>
-      <c r="R42" s="58">
+      <c r="R42" s="56">
         <v>133686</v>
       </c>
       <c r="S42" s="6">
@@ -4554,13 +4512,13 @@
       <c r="T42" s="19">
         <v>493830</v>
       </c>
-      <c r="U42" s="56">
+      <c r="U42" s="54">
         <v>78228</v>
       </c>
-      <c r="V42" s="58">
+      <c r="V42" s="56">
         <v>77903</v>
       </c>
-      <c r="W42" s="58">
+      <c r="W42" s="56">
         <v>100302</v>
       </c>
       <c r="X42" s="6">
@@ -4573,112 +4531,124 @@
         <v>1722111</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="118" t="s">
+    <row r="43" spans="1:26" ht="14" customHeight="1" thickBot="1">
+      <c r="A43" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="59">
+      <c r="B43" s="116"/>
+      <c r="C43" s="57">
         <v>106290</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D43" s="58">
         <v>61551</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="58">
         <v>316633</v>
       </c>
-      <c r="F43" s="61">
+      <c r="F43" s="59">
         <v>141121</v>
       </c>
       <c r="G43" s="18">
         <v>625595</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="60">
         <v>113053</v>
       </c>
-      <c r="I43" s="60">
+      <c r="I43" s="58">
         <v>162415</v>
       </c>
-      <c r="J43" s="61">
+      <c r="J43" s="59">
         <v>163489</v>
       </c>
       <c r="K43" s="18">
         <v>438957</v>
       </c>
-      <c r="L43" s="62">
+      <c r="L43" s="60">
         <v>238389</v>
       </c>
-      <c r="M43" s="61">
+      <c r="M43" s="59">
         <v>316032</v>
       </c>
       <c r="N43" s="18">
         <v>554421</v>
       </c>
-      <c r="O43" s="62">
+      <c r="O43" s="60">
         <v>134377</v>
       </c>
-      <c r="P43" s="60">
+      <c r="P43" s="58">
         <v>254302</v>
       </c>
-      <c r="Q43" s="60">
+      <c r="Q43" s="58">
         <v>255882</v>
       </c>
-      <c r="R43" s="60">
+      <c r="R43" s="58">
         <v>263607</v>
       </c>
-      <c r="S43" s="61">
+      <c r="S43" s="59">
         <v>59066</v>
       </c>
       <c r="T43" s="25">
         <v>967234</v>
       </c>
-      <c r="U43" s="59">
+      <c r="U43" s="57">
         <v>154184</v>
       </c>
-      <c r="V43" s="60">
+      <c r="V43" s="58">
         <v>156876</v>
       </c>
-      <c r="W43" s="60">
+      <c r="W43" s="58">
         <v>200079</v>
       </c>
-      <c r="X43" s="61">
+      <c r="X43" s="59">
         <v>334246</v>
       </c>
       <c r="Y43" s="25">
         <v>845385</v>
       </c>
-      <c r="Z43" s="63">
+      <c r="Z43" s="61">
         <v>3431592</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A31:B31"/>
+  <mergeCells count="56">
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="Z1:Z4"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="U1:Y1"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="D2:D4"/>
@@ -4706,5 +4676,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/source/fr_dc_age_sex/xlsx/2010_dc_age_sex_e.xlsx
+++ b/source/fr_dc_age_sex/xlsx/2010_dc_age_sex_e.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/workspaces/legco-data/source/fr_dc_age_sex/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="460" windowWidth="25600" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Kowloon West</t>
   </si>
@@ -223,9 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">0 16,837 </t>
-  </si>
-  <si>
     <t>41-45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +243,10 @@
   </si>
   <si>
     <t>HK Island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,14 +258,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -264,7 +273,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -273,7 +282,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -282,7 +291,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,7 +321,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -640,8 +649,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -789,9 +800,6 @@
     <xf numFmtId="3" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -891,6 +899,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -900,51 +944,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -999,6 +998,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,26 +1019,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1358,191 +1374,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="88" t="s">
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="85" t="s">
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="88" t="s">
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="104" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="101" t="s">
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="97" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13" customHeight="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="82" t="s">
+    <row r="2" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="103"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="87" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="73" t="s">
+      <c r="S2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="64" t="s">
+      <c r="T2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="76" t="s">
+      <c r="U2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="70" t="s">
+      <c r="V2" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="70" t="s">
+      <c r="W2" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="73" t="s">
+      <c r="X2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="Y2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="102"/>
+      <c r="Z2" s="98"/>
     </row>
-    <row r="3" spans="1:26" ht="13" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="95"/>
+    <row r="3" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="103"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="102"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="98"/>
     </row>
-    <row r="4" spans="1:26" ht="16" customHeight="1" thickBot="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="96"/>
+    <row r="4" spans="1:26" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="103"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="99"/>
     </row>
-    <row r="5" spans="1:26" ht="14" thickBot="1">
-      <c r="A5" s="97" t="s">
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1621,8 +1637,8 @@
         <v>59908</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14" thickBot="1">
-      <c r="A6" s="98"/>
+    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94"/>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
@@ -1699,11 +1715,11 @@
         <v>64914</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A7" s="99" t="s">
+    <row r="7" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="21">
         <v>2613</v>
       </c>
@@ -1777,8 +1793,8 @@
         <v>124822</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14" thickBot="1">
-      <c r="A8" s="97" t="s">
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="93" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1857,8 +1873,8 @@
         <v>96984</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14" thickBot="1">
-      <c r="A9" s="98"/>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="94"/>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1935,11 +1951,11 @@
         <v>97397</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="99" t="s">
+    <row r="10" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="21">
         <v>4752</v>
       </c>
@@ -2013,8 +2029,8 @@
         <v>194381</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="97" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="93" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -2056,10 +2072,10 @@
       <c r="N11" s="33">
         <v>17589</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="61">
         <v>4229</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="62">
         <v>10445</v>
       </c>
       <c r="Q11" s="32">
@@ -2093,8 +2109,8 @@
         <v>119596</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14" thickBot="1">
-      <c r="A12" s="98"/>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94"/>
       <c r="B12" s="41" t="s">
         <v>35</v>
       </c>
@@ -2171,11 +2187,11 @@
         <v>119491</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A13" s="99" t="s">
+    <row r="13" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="21">
         <v>6386</v>
       </c>
@@ -2249,8 +2265,8 @@
         <v>239087</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14" thickBot="1">
-      <c r="A14" s="97" t="s">
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="93" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2329,8 +2345,8 @@
         <v>127824</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14" thickBot="1">
-      <c r="A15" s="98"/>
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="94"/>
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
@@ -2407,11 +2423,11 @@
         <v>134401</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A16" s="99" t="s">
+    <row r="16" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="21">
         <v>8031</v>
       </c>
@@ -2485,8 +2501,8 @@
         <v>262225</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="14" thickBot="1">
-      <c r="A17" s="97" t="s">
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="93" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2565,8 +2581,8 @@
         <v>140663</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="14" thickBot="1">
-      <c r="A18" s="98"/>
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="94"/>
       <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
@@ -2643,11 +2659,11 @@
         <v>139702</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A19" s="99" t="s">
+    <row r="19" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="100"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="21">
         <v>9317</v>
       </c>
@@ -2721,9 +2737,9 @@
         <v>280365</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="14" thickBot="1">
-      <c r="A20" s="97" t="s">
-        <v>59</v>
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="93" t="s">
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
@@ -2801,8 +2817,8 @@
         <v>166016</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14" thickBot="1">
-      <c r="A21" s="98"/>
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="94"/>
       <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
@@ -2879,11 +2895,11 @@
         <v>154016</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A22" s="99" t="s">
+    <row r="22" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="100"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="21">
         <v>10229</v>
       </c>
@@ -2957,8 +2973,8 @@
         <v>320032</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="14" thickBot="1">
-      <c r="A23" s="97" t="s">
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="93" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3037,8 +3053,8 @@
         <v>218232</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="14" thickBot="1">
-      <c r="A24" s="98"/>
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="94"/>
       <c r="B24" s="15" t="s">
         <v>7</v>
       </c>
@@ -3115,11 +3131,11 @@
         <v>207828</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A25" s="99" t="s">
+    <row r="25" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="21">
         <v>13164</v>
       </c>
@@ -3193,8 +3209,8 @@
         <v>426060</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="14" thickBot="1">
-      <c r="A26" s="97" t="s">
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="93" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3257,10 +3273,10 @@
       <c r="U26" s="9">
         <v>10362</v>
       </c>
-      <c r="V26" s="46">
+      <c r="V26" s="45">
         <v>11650</v>
       </c>
-      <c r="W26" s="47">
+      <c r="W26" s="46">
         <v>11990</v>
       </c>
       <c r="X26" s="9">
@@ -3273,10 +3289,10 @@
         <v>207446</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="14" thickBot="1">
-      <c r="A27" s="98"/>
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="94"/>
       <c r="B27" s="15" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C27" s="9">
         <v>6616</v>
@@ -3324,21 +3340,21 @@
         <v>17610</v>
       </c>
       <c r="R27" s="9">
-        <v>14510</v>
+        <v>14519</v>
       </c>
       <c r="S27" s="9">
         <v>3990</v>
       </c>
       <c r="T27" s="19">
-        <v>69805</v>
+        <v>60805</v>
       </c>
       <c r="U27" s="9">
         <v>10845</v>
       </c>
-      <c r="V27" s="46">
+      <c r="V27" s="45">
         <v>11569</v>
       </c>
-      <c r="W27" s="47">
+      <c r="W27" s="46">
         <v>12925</v>
       </c>
       <c r="X27" s="9">
@@ -3351,11 +3367,11 @@
         <v>209497</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A28" s="99" t="s">
+    <row r="28" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="100"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="21">
         <v>13148</v>
       </c>
@@ -3429,8 +3445,8 @@
         <v>416943</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="14" thickBot="1">
-      <c r="A29" s="97" t="s">
+    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3509,8 +3525,8 @@
         <v>163183</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="14" thickBot="1">
-      <c r="A30" s="98"/>
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="94"/>
       <c r="B30" s="15" t="s">
         <v>39</v>
       </c>
@@ -3566,7 +3582,7 @@
         <v>3157</v>
       </c>
       <c r="T30" s="19">
-        <v>43101</v>
+        <v>48101</v>
       </c>
       <c r="U30" s="9">
         <v>8027</v>
@@ -3587,11 +3603,11 @@
         <v>169884</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A31" s="99" t="s">
+    <row r="31" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="100"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="21">
         <v>11391</v>
       </c>
@@ -3665,8 +3681,8 @@
         <v>333067</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="14" thickBot="1">
-      <c r="A32" s="97" t="s">
+    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="93" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3745,8 +3761,8 @@
         <v>112757</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="14" thickBot="1">
-      <c r="A33" s="98"/>
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="94"/>
       <c r="B33" s="15" t="s">
         <v>40</v>
       </c>
@@ -3823,11 +3839,11 @@
         <v>121095</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A34" s="99" t="s">
+    <row r="34" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="100"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="21">
         <v>8504</v>
       </c>
@@ -3867,8 +3883,8 @@
       <c r="O34" s="24">
         <v>9300</v>
       </c>
-      <c r="P34" s="45" t="s">
-        <v>58</v>
+      <c r="P34" s="22">
+        <v>16837</v>
       </c>
       <c r="Q34" s="22">
         <v>13138</v>
@@ -3901,8 +3917,8 @@
         <v>233852</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A35" s="117" t="s">
+    <row r="35" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="116" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3911,10 +3927,10 @@
       <c r="C35" s="9">
         <v>2182</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="45">
         <v>1608</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="46">
         <v>7480</v>
       </c>
       <c r="F35" s="9">
@@ -3938,7 +3954,7 @@
       <c r="L35" s="9">
         <v>5558</v>
       </c>
-      <c r="M35" s="48">
+      <c r="M35" s="47">
         <v>8376</v>
       </c>
       <c r="N35" s="10">
@@ -3981,18 +3997,18 @@
         <v>70581</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="118"/>
+    <row r="36" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="117"/>
       <c r="B36" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="32">
         <v>2463</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="48">
         <v>1695</v>
       </c>
-      <c r="E36" s="50">
+      <c r="E36" s="49">
         <v>8012</v>
       </c>
       <c r="F36" s="32">
@@ -4059,11 +4075,11 @@
         <v>85667</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A37" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="100"/>
+    <row r="37" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="96"/>
       <c r="C37" s="21">
         <v>4645</v>
       </c>
@@ -4137,8 +4153,8 @@
         <v>156248</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="14" thickBot="1">
-      <c r="A38" s="97" t="s">
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="93" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -4217,8 +4233,8 @@
         <v>226291</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="14" thickBot="1">
-      <c r="A39" s="98"/>
+    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="94"/>
       <c r="B39" s="15" t="s">
         <v>7</v>
       </c>
@@ -4295,11 +4311,11 @@
         <v>218219</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A40" s="99" t="s">
+    <row r="40" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="100"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="21">
         <v>14110</v>
       </c>
@@ -4369,81 +4385,81 @@
       <c r="Y40" s="25">
         <v>80164</v>
       </c>
-      <c r="Z40" s="51">
+      <c r="Z40" s="50">
         <v>444510</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="13" customHeight="1">
-      <c r="A41" s="97" t="s">
+    <row r="41" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="93" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="48">
         <v>53498</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="49">
         <v>31327</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="48">
         <v>161569</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="49">
         <v>71625</v>
       </c>
       <c r="G41" s="10">
         <v>318019</v>
       </c>
-      <c r="H41" s="52">
+      <c r="H41" s="51">
         <v>55156</v>
       </c>
-      <c r="I41" s="53">
+      <c r="I41" s="52">
         <v>80102</v>
       </c>
-      <c r="J41" s="50">
+      <c r="J41" s="49">
         <v>82876</v>
       </c>
       <c r="K41" s="10">
         <v>218134</v>
       </c>
-      <c r="L41" s="52">
+      <c r="L41" s="51">
         <v>120522</v>
       </c>
-      <c r="M41" s="50">
+      <c r="M41" s="49">
         <v>156252</v>
       </c>
       <c r="N41" s="10">
         <v>276774</v>
       </c>
-      <c r="O41" s="52">
+      <c r="O41" s="51">
         <v>66725</v>
       </c>
-      <c r="P41" s="53">
+      <c r="P41" s="52">
         <v>125275</v>
       </c>
-      <c r="Q41" s="53">
+      <c r="Q41" s="52">
         <v>122719</v>
       </c>
-      <c r="R41" s="53">
+      <c r="R41" s="52">
         <v>129921</v>
       </c>
-      <c r="S41" s="50">
+      <c r="S41" s="49">
         <v>28764</v>
       </c>
       <c r="T41" s="13">
         <v>473404</v>
       </c>
-      <c r="U41" s="49">
+      <c r="U41" s="48">
         <v>75956</v>
       </c>
-      <c r="V41" s="53">
+      <c r="V41" s="52">
         <v>78973</v>
       </c>
-      <c r="W41" s="53">
+      <c r="W41" s="52">
         <v>99777</v>
       </c>
-      <c r="X41" s="50">
+      <c r="X41" s="49">
         <v>168444</v>
       </c>
       <c r="Y41" s="13">
@@ -4453,18 +4469,18 @@
         <v>1709481</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A42" s="98"/>
+    <row r="42" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="94"/>
       <c r="B42" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="53">
         <v>52792</v>
       </c>
       <c r="D42" s="6">
         <v>30224</v>
       </c>
-      <c r="E42" s="54">
+      <c r="E42" s="53">
         <v>155064</v>
       </c>
       <c r="F42" s="6">
@@ -4473,10 +4489,10 @@
       <c r="G42" s="17">
         <v>307576</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="54">
         <v>57897</v>
       </c>
-      <c r="I42" s="56">
+      <c r="I42" s="55">
         <v>82313</v>
       </c>
       <c r="J42" s="6">
@@ -4485,7 +4501,7 @@
       <c r="K42" s="17">
         <v>220823</v>
       </c>
-      <c r="L42" s="55">
+      <c r="L42" s="54">
         <v>117867</v>
       </c>
       <c r="M42" s="6">
@@ -4494,16 +4510,16 @@
       <c r="N42" s="17">
         <v>277647</v>
       </c>
-      <c r="O42" s="55">
+      <c r="O42" s="54">
         <v>67652</v>
       </c>
-      <c r="P42" s="56">
+      <c r="P42" s="55">
         <v>129027</v>
       </c>
-      <c r="Q42" s="56">
+      <c r="Q42" s="55">
         <v>133163</v>
       </c>
-      <c r="R42" s="56">
+      <c r="R42" s="55">
         <v>133686</v>
       </c>
       <c r="S42" s="6">
@@ -4512,13 +4528,13 @@
       <c r="T42" s="19">
         <v>493830</v>
       </c>
-      <c r="U42" s="54">
+      <c r="U42" s="53">
         <v>78228</v>
       </c>
-      <c r="V42" s="56">
+      <c r="V42" s="55">
         <v>77903</v>
       </c>
-      <c r="W42" s="56">
+      <c r="W42" s="55">
         <v>100302</v>
       </c>
       <c r="X42" s="6">
@@ -4531,85 +4547,88 @@
         <v>1722111</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="14" customHeight="1" thickBot="1">
-      <c r="A43" s="115" t="s">
+    <row r="43" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="116"/>
-      <c r="C43" s="57">
+      <c r="B43" s="115"/>
+      <c r="C43" s="56">
         <v>106290</v>
       </c>
-      <c r="D43" s="58">
+      <c r="D43" s="57">
         <v>61551</v>
       </c>
-      <c r="E43" s="58">
+      <c r="E43" s="57">
         <v>316633</v>
       </c>
-      <c r="F43" s="59">
+      <c r="F43" s="58">
         <v>141121</v>
       </c>
       <c r="G43" s="18">
         <v>625595</v>
       </c>
-      <c r="H43" s="60">
+      <c r="H43" s="59">
         <v>113053</v>
       </c>
-      <c r="I43" s="58">
+      <c r="I43" s="57">
         <v>162415</v>
       </c>
-      <c r="J43" s="59">
+      <c r="J43" s="58">
         <v>163489</v>
       </c>
       <c r="K43" s="18">
         <v>438957</v>
       </c>
-      <c r="L43" s="60">
+      <c r="L43" s="59">
         <v>238389</v>
       </c>
-      <c r="M43" s="59">
+      <c r="M43" s="58">
         <v>316032</v>
       </c>
       <c r="N43" s="18">
         <v>554421</v>
       </c>
-      <c r="O43" s="60">
+      <c r="O43" s="59">
         <v>134377</v>
       </c>
-      <c r="P43" s="58">
+      <c r="P43" s="57">
         <v>254302</v>
       </c>
-      <c r="Q43" s="58">
+      <c r="Q43" s="57">
         <v>255882</v>
       </c>
-      <c r="R43" s="58">
+      <c r="R43" s="57">
         <v>263607</v>
       </c>
-      <c r="S43" s="59">
+      <c r="S43" s="58">
         <v>59066</v>
       </c>
       <c r="T43" s="25">
         <v>967234</v>
       </c>
-      <c r="U43" s="57">
+      <c r="U43" s="56">
         <v>154184</v>
       </c>
-      <c r="V43" s="58">
+      <c r="V43" s="57">
         <v>156876</v>
       </c>
-      <c r="W43" s="58">
+      <c r="W43" s="57">
         <v>200079</v>
       </c>
-      <c r="X43" s="59">
+      <c r="X43" s="58">
         <v>334246</v>
       </c>
       <c r="Y43" s="25">
         <v>845385</v>
       </c>
-      <c r="Z43" s="61">
+      <c r="Z43" s="60">
         <v>3431592</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C44" s="118"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -4643,13 +4662,13 @@
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
@@ -4676,10 +4695,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>